--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>VIN</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,13 +697,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -155,9 +155,6 @@
     <t>SYMBOL_2000_CHOICE_T</t>
   </si>
   <si>
-    <t>BBBKN3DD&amp;E</t>
-  </si>
-  <si>
     <t>BI_SYMBOL</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>1FDEU15H&amp;K</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,33 +644,33 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
@@ -697,13 +697,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -754,16 +754,16 @@
         <v>38</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG2">
         <v>20000101</v>
@@ -775,7 +775,7 @@
         <v>38</v>
       </c>
       <c r="AJ2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>VIN</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>1FDEU15H&amp;K</t>
+  </si>
+  <si>
+    <t>STAT</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,14 +554,15 @@
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="14.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="33" max="33" width="15.109375" customWidth="1"/>
-    <col min="35" max="35" width="22.6640625" customWidth="1"/>
-    <col min="36" max="36" width="21.77734375" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="28" width="16.21875" customWidth="1"/>
+    <col min="34" max="34" width="15.109375" customWidth="1"/>
+    <col min="36" max="36" width="22.6640625" customWidth="1"/>
+    <col min="37" max="37" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,40 +639,43 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -744,17 +751,17 @@
       <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3">
-        <v>39</v>
+      <c r="Z2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="AA2" s="3">
         <v>39</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="3">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>51</v>
@@ -765,20 +772,23 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2">
         <v>20000101</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>38</v>
       </c>
       <c r="AI2" t="s">
         <v>38</v>
       </c>
       <c r="AJ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -806,6 +816,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>VIN</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>STAT</t>
+  </si>
+  <si>
+    <t>CHOICE_TIER</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,13 +562,13 @@
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
     <col min="26" max="26" width="6.5546875" customWidth="1"/>
     <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="28" width="16.21875" customWidth="1"/>
-    <col min="34" max="34" width="15.109375" customWidth="1"/>
-    <col min="36" max="36" width="22.6640625" customWidth="1"/>
-    <col min="37" max="37" width="21.77734375" customWidth="1"/>
+    <col min="28" max="29" width="16.21875" customWidth="1"/>
+    <col min="35" max="35" width="15.109375" customWidth="1"/>
+    <col min="37" max="37" width="22.6640625" customWidth="1"/>
+    <col min="38" max="38" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,34 +654,37 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -752,7 +761,7 @@
         <v>37</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AA2" s="3">
         <v>39</v>
@@ -761,10 +770,10 @@
         <v>39</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>51</v>
@@ -775,20 +784,23 @@
       <c r="AG2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2">
         <v>20000101</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>38</v>
       </c>
       <c r="AJ2" t="s">
         <v>38</v>
       </c>
       <c r="AK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -817,6 +829,10 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AC4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>VIN</t>
   </si>
@@ -155,9 +155,6 @@
     <t>SYMBOL_2000_CHOICE_T</t>
   </si>
   <si>
-    <t>BBBKN3DD&amp;E</t>
-  </si>
-  <si>
     <t>BI_SYMBOL</t>
   </si>
   <si>
@@ -189,6 +186,18 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>STAT</t>
+  </si>
+  <si>
+    <t>CHOICE_TIER</t>
+  </si>
+  <si>
+    <t>1FDEU15H&amp;K</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,9 +565,10 @@
     <col min="33" max="33" width="15.109375" customWidth="1"/>
     <col min="35" max="35" width="22.6640625" customWidth="1"/>
     <col min="36" max="36" width="21.77734375" customWidth="1"/>
+    <col min="38" max="38" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,42 +645,48 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
@@ -697,13 +713,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -744,68 +760,45 @@
       <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3">
-        <v>39</v>
+      <c r="Z2" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="AA2" s="3">
         <v>39</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="3">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2">
+        <v>20000101</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2">
-        <v>20000101</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>VIN</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SYMBOL_2000_ENTRY_DATE</t>
   </si>
 </sst>
 </file>
@@ -541,16 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
@@ -801,38 +807,352 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>214</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3">
+        <v>20000101</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AC4" s="3"/>
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>214</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI4">
+        <v>20150101</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>214</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5">
+        <v>20180101</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>VIN</t>
   </si>
@@ -203,7 +203,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>SYMBOL_2000_ENTRY_DATE</t>
+    <t>SYMBOL_2000_CH_ENTRY_DATE</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -547,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
@@ -782,16 +785,16 @@
         <v>38</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -1142,7 +1145,7 @@
         <v>52</v>
       </c>
       <c r="AI5">
-        <v>20180101</v>
+        <v>20190101</v>
       </c>
       <c r="AJ5" t="s">
         <v>38</v>
@@ -1153,8 +1156,12 @@
       <c r="AL5" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>VIN</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>SYMBOL_2000_CH_ENTRY_DATE</t>
   </si>
   <si>
     <t>T</t>
@@ -552,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,16 +782,16 @@
         <v>38</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -814,7 +811,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3">
         <v>2005</v>
@@ -930,7 +927,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>2005</v>
@@ -1046,7 +1043,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3">
         <v>2005</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,16 +1130,16 @@
         <v>38</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI5">
         <v>20190101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE_.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
